--- a/LifePodsAlgorithm/src/source/users.xlsx
+++ b/LifePodsAlgorithm/src/source/users.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelorr/Documents/GitHub/SustainableLifeApp/LifePodsAlgorithm/src/source/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8076A16B-0B59-D64C-909A-179327B56E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Copy of Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Copy of Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -233,77 +253,85 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -493,61 +521,64 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="18.14"/>
-    <col customWidth="1" min="4" max="6" width="23.71"/>
-    <col customWidth="1" min="9" max="12" width="16.86"/>
+    <col min="2" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="6" width="23.6640625" customWidth="1"/>
+    <col min="9" max="12" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L1" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -569,7 +600,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,9 +659,9 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -642,30 +673,30 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H3" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="J3" s="5">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="K3" s="5">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="L3" s="5">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -677,30 +708,30 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="H4" s="5">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="I4" s="5">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="J4" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="L4" s="5">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -712,30 +743,30 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="I5" s="5">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="J5" s="5">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="K5" s="5">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="L5" s="5">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -747,30 +778,30 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="J6" s="5">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="K6" s="5">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="L6" s="5">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -782,30 +813,30 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="I7" s="5">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="J7" s="5">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="K7" s="5">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="L7" s="5">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -817,30 +848,30 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H8" s="5">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="I8" s="5">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="J8" s="5">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="K8" s="5">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="L8" s="5">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -852,30 +883,30 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="H9" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="I9" s="5">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="J9" s="5">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="K9" s="5">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="L9" s="5">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -887,30 +918,30 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H10" s="5">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="I10" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="J10" s="5">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="K10" s="5">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="L10" s="5">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -922,30 +953,30 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H11" s="5">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="I11" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="J11" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="5">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="L11" s="5">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -957,30 +988,30 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="H12" s="5">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="I12" s="5">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="J12" s="5">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="K12" s="5">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="L12" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -992,30 +1023,30 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="H13" s="5">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="I13" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="K13" s="5">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="L13" s="5">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1027,30 +1058,30 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="H14" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="J14" s="5">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="K14" s="5">
-        <v>457.0</v>
+        <v>457</v>
       </c>
       <c r="L14" s="5">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1062,30 +1093,30 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="H15" s="5">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="I15" s="5">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="J15" s="5">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="K15" s="5">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="L15" s="5">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1097,30 +1128,30 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="I16" s="5">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="J16" s="5">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="K16" s="5">
-        <v>462.0</v>
+        <v>462</v>
       </c>
       <c r="L16" s="5">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1132,30 +1163,30 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="H17" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="I17" s="5">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="J17" s="5">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="K17" s="5">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="L17" s="5">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1167,30 +1198,30 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="H18" s="5">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="I18" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="J18" s="5">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="K18" s="5">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="L18" s="5">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -1202,30 +1233,30 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="H19" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="I19" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="J19" s="5">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="K19" s="5">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="L19" s="5">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -1237,30 +1268,30 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="H20" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I20" s="5">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="J20" s="5">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="K20" s="5">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="L20" s="5">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1272,30 +1303,30 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="H21" s="5">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="I21" s="5">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="J21" s="5">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="K21" s="5">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="L21" s="5">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1307,22 +1338,22 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="H22" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="I22" s="5">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="J22" s="5">
-        <v>498.0</v>
+        <v>498</v>
       </c>
       <c r="K22" s="5">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="L22" s="5">
-        <v>467.0</v>
+        <v>467</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>39</v>
@@ -1331,9 +1362,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -1345,30 +1376,30 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I23" s="5">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="J23" s="5">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="K23" s="5">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="L23" s="5">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -1380,30 +1411,30 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="5">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="H24" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="I24" s="5">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="J24" s="5">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="K24" s="5">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="L24" s="5">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -1415,30 +1446,30 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="I25" s="5">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="J25" s="5">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="K25" s="5">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="L25" s="5">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -1450,30 +1481,30 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="H26" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="I26" s="5">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="J26" s="5">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="K26" s="5">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="L26" s="5">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -1485,30 +1516,30 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="H27" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I27" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="J27" s="5">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="K27" s="5">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="L27" s="5">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -1520,30 +1551,30 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="H28" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="I28" s="5">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="J28" s="5">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="K28" s="5">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="L28" s="5">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -1555,30 +1586,30 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="H29" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="I29" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="5">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="K29" s="5">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="L29" s="5">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -1590,30 +1621,30 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="H30" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I30" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="J30" s="5">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="K30" s="5">
-        <v>494.0</v>
+        <v>494</v>
       </c>
       <c r="L30" s="5">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -1625,30 +1656,30 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="H31" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I31" s="5">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="J31" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="K31" s="5">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="L31" s="5">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -1660,30 +1691,30 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="H32" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="I32" s="5">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="J32" s="5">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="K32" s="5">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="L32" s="5">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -1695,30 +1726,30 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="H33" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I33" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J33" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="K33" s="5">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="L33" s="5">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -1730,30 +1761,30 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="H34" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I34" s="5">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="J34" s="5">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="K34" s="5">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="L34" s="5">
-        <v>449.0</v>
+        <v>449</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -1765,30 +1796,30 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H35" s="5">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="I35" s="5">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="J35" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K35" s="5">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="L35" s="5">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -1800,30 +1831,30 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H36" s="5">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="I36" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="J36" s="5">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="K36" s="5">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="L36" s="5">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
@@ -1835,30 +1866,30 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="H37" s="5">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="I37" s="5">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="J37" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K37" s="5">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="L37" s="5">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -1870,30 +1901,30 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="H38" s="5">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="I38" s="5">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="J38" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="K38" s="5">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="L38" s="5">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
@@ -1905,30 +1936,30 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="H39" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="I39" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J39" s="5">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="K39" s="5">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="L39" s="5">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
@@ -1940,30 +1971,30 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H40" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="I40" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J40" s="5">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="K40" s="5">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="L40" s="5">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
@@ -1975,30 +2006,30 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="I41" s="5">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="J41" s="5">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="K41" s="5">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="L41" s="5">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
@@ -2010,30 +2041,30 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="H42" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I42" s="5">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="J42" s="5">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="K42" s="5">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="L42" s="5">
-        <v>486.0</v>
+        <v>486</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -2045,30 +2076,30 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="H43" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="I43" s="5">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="J43" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K43" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="L43" s="5">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
@@ -2080,30 +2111,30 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="H44" s="5">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="I44" s="5">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="J44" s="5">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="K44" s="5">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="L44" s="5">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
@@ -2115,30 +2146,30 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="H45" s="5">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="I45" s="5">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="J45" s="5">
-        <v>487.0</v>
+        <v>487</v>
       </c>
       <c r="K45" s="5">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="L45" s="5">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
@@ -2150,30 +2181,30 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="5">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="H46" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I46" s="5">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="J46" s="5">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="K46" s="5">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="L46" s="5">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
@@ -2185,30 +2216,30 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="5">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="H47" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="I47" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J47" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="K47" s="5">
-        <v>452.0</v>
+        <v>452</v>
       </c>
       <c r="L47" s="5">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
@@ -2220,30 +2251,30 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="5">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="H48" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="I48" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="J48" s="5">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="K48" s="5">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="L48" s="5">
-        <v>457.0</v>
+        <v>457</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
@@ -2255,30 +2286,30 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="H49" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I49" s="5">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="J49" s="5">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="K49" s="5">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="L49" s="5">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
@@ -2290,30 +2321,30 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="5">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="H50" s="5">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="I50" s="5">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="J50" s="5">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="K50" s="5">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="L50" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
@@ -2325,30 +2356,30 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H51" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="I51" s="5">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="J51" s="5">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="K51" s="5">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="L51" s="5">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
@@ -2360,51 +2391,76 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H52" s="5">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="I52" s="5">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="J52" s="5">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="K52" s="5">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="L52" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="4"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="18.14"/>
-    <col customWidth="1" min="4" max="4" width="23.71"/>
-    <col customWidth="1" min="7" max="10" width="16.86"/>
+    <col min="2" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="7" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2455,9 +2511,9 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -2467,33 +2523,33 @@
         <v>15</v>
       </c>
       <c r="E2" s="6">
-        <f t="shared" ref="E2:F2" si="1">RANDBETWEEN(1,100)</f>
-        <v>41</v>
+        <f t="shared" ref="E2:F2" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>75</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:J2" si="2">RANDBETWEEN(1,500)</f>
-        <v>13</v>
+        <f t="shared" ref="G2:J2" ca="1" si="1">RANDBETWEEN(1,500)</f>
+        <v>238</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" si="2"/>
-        <v>334</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>158</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" si="2"/>
-        <v>375</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" si="2"/>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -2503,33 +2559,33 @@
         <v>15</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:F3" si="3">RANDBETWEEN(1,100)</f>
-        <v>36</v>
+        <f t="shared" ref="E3:F3" ca="1" si="2">RANDBETWEEN(1,100)</f>
+        <v>5</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" si="3"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G51" si="6">RANDBETWEEN(1,200)</f>
-        <v>68</v>
+        <f t="shared" ref="G3:G51" ca="1" si="3">RANDBETWEEN(1,200)</f>
+        <v>71</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:J3" si="4">RANDBETWEEN(1,500)</f>
-        <v>29</v>
+        <f t="shared" ref="H3:J3" ca="1" si="4">RANDBETWEEN(1,500)</f>
+        <v>378</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="4"/>
-        <v>346</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>395</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="4"/>
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -2539,33 +2595,33 @@
         <v>15</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:F4" si="5">RANDBETWEEN(1,100)</f>
+        <f t="shared" ref="E4:F4" ca="1" si="5">RANDBETWEEN(1,100)</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ca="1" si="5"/>
         <v>72</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
       <c r="G4" s="6">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:J4" si="7">RANDBETWEEN(1,500)</f>
-        <v>424</v>
+        <f t="shared" ref="H4:J4" ca="1" si="6">RANDBETWEEN(1,500)</f>
+        <v>390</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="7"/>
-        <v>496</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>157</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="7"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -2575,33 +2631,33 @@
         <v>15</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:F5" si="8">RANDBETWEEN(1,100)</f>
-        <v>71</v>
+        <f t="shared" ref="E5:F5" ca="1" si="7">RANDBETWEEN(1,100)</f>
+        <v>56</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="6"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:J5" si="9">RANDBETWEEN(1,500)</f>
-        <v>259</v>
+        <f t="shared" ref="H5:J5" ca="1" si="8">RANDBETWEEN(1,500)</f>
+        <v>291</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="9"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>191</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="9"/>
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -2611,33 +2667,33 @@
         <v>15</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" ref="E6:F6" si="10">RANDBETWEEN(1,100)</f>
-        <v>45</v>
+        <f t="shared" ref="E6:F6" ca="1" si="9">RANDBETWEEN(1,100)</f>
+        <v>62</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="10"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>85</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:J6" si="11">RANDBETWEEN(1,500)</f>
-        <v>172</v>
+        <f t="shared" ref="H6:J6" ca="1" si="10">RANDBETWEEN(1,500)</f>
+        <v>329</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="11"/>
-        <v>287</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="11"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -2647,33 +2703,33 @@
         <v>15</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7:F7" si="12">RANDBETWEEN(1,100)</f>
-        <v>2</v>
+        <f t="shared" ref="E7:F7" ca="1" si="11">RANDBETWEEN(1,100)</f>
+        <v>35</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="12"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>89</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="6"/>
-        <v>161</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H7:J7" si="13">RANDBETWEEN(1,500)</f>
-        <v>420</v>
+        <f t="shared" ref="H7:J7" ca="1" si="12">RANDBETWEEN(1,500)</f>
+        <v>245</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="13"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>75</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -2683,33 +2739,33 @@
         <v>15</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:F8" si="14">RANDBETWEEN(1,100)</f>
-        <v>36</v>
+        <f t="shared" ref="E8:F8" ca="1" si="13">RANDBETWEEN(1,100)</f>
+        <v>95</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="14"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>77</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>124</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:J8" si="15">RANDBETWEEN(1,500)</f>
-        <v>105</v>
+        <f t="shared" ref="H8:J8" ca="1" si="14">RANDBETWEEN(1,500)</f>
+        <v>439</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="15"/>
-        <v>267</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>260</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="15"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -2719,33 +2775,33 @@
         <v>15</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" ref="E9:F9" si="16">RANDBETWEEN(1,100)</f>
-        <v>63</v>
+        <f t="shared" ref="E9:F9" ca="1" si="15">RANDBETWEEN(1,100)</f>
+        <v>60</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>55</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="6"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>164</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ref="H9:J9" si="17">RANDBETWEEN(1,500)</f>
-        <v>252</v>
+        <f t="shared" ref="H9:J9" ca="1" si="16">RANDBETWEEN(1,500)</f>
+        <v>337</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="17"/>
-        <v>167</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>471</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="17"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -2755,33 +2811,33 @@
         <v>15</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" ref="E10:F10" si="18">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <f t="shared" ref="E10:F10" ca="1" si="17">RANDBETWEEN(1,100)</f>
+        <v>71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="18"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>50</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>122</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:J10" si="19">RANDBETWEEN(1,500)</f>
-        <v>321</v>
+        <f t="shared" ref="H10:J10" ca="1" si="18">RANDBETWEEN(1,500)</f>
+        <v>34</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="19"/>
-        <v>416</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>28</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="19"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11">
+        <f t="shared" ca="1" si="18"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -2791,33 +2847,33 @@
         <v>15</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:F11" si="20">RANDBETWEEN(1,100)</f>
-        <v>47</v>
+        <f t="shared" ref="E11:F11" ca="1" si="19">RANDBETWEEN(1,100)</f>
+        <v>25</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="20"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>79</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="6"/>
-        <v>152</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>182</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ref="H11:J11" si="21">RANDBETWEEN(1,500)</f>
-        <v>407</v>
+        <f t="shared" ref="H11:J11" ca="1" si="20">RANDBETWEEN(1,500)</f>
+        <v>392</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="21"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>347</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="21"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12">
+        <f t="shared" ca="1" si="20"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -2827,33 +2883,33 @@
         <v>29</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:F12" si="22">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <f t="shared" ref="E12:F12" ca="1" si="21">RANDBETWEEN(1,100)</f>
+        <v>75</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="22"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>84</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="6"/>
-        <v>199</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ref="H12:J12" si="23">RANDBETWEEN(1,500)</f>
-        <v>384</v>
+        <f t="shared" ref="H12:J12" ca="1" si="22">RANDBETWEEN(1,500)</f>
+        <v>189</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="23"/>
-        <v>397</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>100</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="23"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" ca="1" si="22"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -2863,33 +2919,33 @@
         <v>29</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:F13" si="24">RANDBETWEEN(1,100)</f>
-        <v>71</v>
+        <f t="shared" ref="E13:F13" ca="1" si="23">RANDBETWEEN(1,100)</f>
+        <v>83</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="24"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>58</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="6"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>161</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13:J13" si="25">RANDBETWEEN(1,500)</f>
-        <v>368</v>
+        <f t="shared" ref="H13:J13" ca="1" si="24">RANDBETWEEN(1,500)</f>
+        <v>329</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="25"/>
-        <v>425</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>89</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="25"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14">
+        <f t="shared" ca="1" si="24"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -2899,33 +2955,33 @@
         <v>29</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ref="E14:F14" si="26">RANDBETWEEN(1,100)</f>
-        <v>95</v>
+        <f t="shared" ref="E14:F14" ca="1" si="25">RANDBETWEEN(1,100)</f>
+        <v>30</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="26"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>21</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="6"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>179</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:J14" si="27">RANDBETWEEN(1,500)</f>
-        <v>137</v>
+        <f t="shared" ref="H14:J14" ca="1" si="26">RANDBETWEEN(1,500)</f>
+        <v>138</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="27"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>76</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="27"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15">
+        <f t="shared" ca="1" si="26"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -2935,33 +2991,33 @@
         <v>29</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:F15" si="28">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <f t="shared" ref="E15:F15" ca="1" si="27">RANDBETWEEN(1,100)</f>
+        <v>9</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="28"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>61</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:J15" si="29">RANDBETWEEN(1,500)</f>
-        <v>177</v>
+        <f t="shared" ref="H15:J15" ca="1" si="28">RANDBETWEEN(1,500)</f>
+        <v>226</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="29"/>
-        <v>389</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>283</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="29"/>
-        <v>354</v>
-      </c>
-    </row>
-    <row r="16">
+        <f t="shared" ca="1" si="28"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -2971,33 +3027,33 @@
         <v>29</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" ref="E16:F16" si="30">RANDBETWEEN(1,100)</f>
-        <v>34</v>
+        <f t="shared" ref="E16:F16" ca="1" si="29">RANDBETWEEN(1,100)</f>
+        <v>59</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="30"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>70</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="6"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:J16" si="31">RANDBETWEEN(1,500)</f>
-        <v>18</v>
+        <f t="shared" ref="H16:J16" ca="1" si="30">RANDBETWEEN(1,500)</f>
+        <v>160</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="31"/>
-        <v>151</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>358</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="31"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" ca="1" si="30"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -3007,33 +3063,33 @@
         <v>29</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:F17" si="32">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <f t="shared" ref="E17:F17" ca="1" si="31">RANDBETWEEN(1,100)</f>
+        <v>1</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" ca="1" si="31"/>
+        <v>85</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17:J17" ca="1" si="32">RANDBETWEEN(1,500)</f>
+        <v>62</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>255</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" ca="1" si="32"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>17</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" ref="H17:J17" si="33">RANDBETWEEN(1,500)</f>
-        <v>378</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="33"/>
-        <v>422</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="33"/>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>17.0</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -3043,33 +3099,33 @@
         <v>29</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" ref="E18:F18" si="34">RANDBETWEEN(1,100)</f>
-        <v>28</v>
+        <f t="shared" ref="E18:F18" ca="1" si="33">RANDBETWEEN(1,100)</f>
+        <v>86</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="34"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>6</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="6"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:J18" si="35">RANDBETWEEN(1,500)</f>
-        <v>220</v>
+        <f t="shared" ref="H18:J18" ca="1" si="34">RANDBETWEEN(1,500)</f>
+        <v>498</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="35"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>269</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="35"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" ca="1" si="34"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -3079,33 +3135,33 @@
         <v>29</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" ref="E19:F19" si="36">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <f t="shared" ref="E19:F19" ca="1" si="35">RANDBETWEEN(1,100)</f>
+        <v>23</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="36"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>13</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="6"/>
-        <v>143</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>114</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ref="H19:J19" si="37">RANDBETWEEN(1,500)</f>
-        <v>400</v>
+        <f t="shared" ref="H19:J19" ca="1" si="36">RANDBETWEEN(1,500)</f>
+        <v>496</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="37"/>
-        <v>349</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>22</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="37"/>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20">
+        <f t="shared" ca="1" si="36"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -3115,33 +3171,33 @@
         <v>29</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" ref="E20:F20" si="38">RANDBETWEEN(1,100)</f>
-        <v>58</v>
+        <f t="shared" ref="E20:F20" ca="1" si="37">RANDBETWEEN(1,100)</f>
+        <v>93</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="38"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>24</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="6"/>
-        <v>108</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:J20" si="39">RANDBETWEEN(1,500)</f>
-        <v>48</v>
+        <f t="shared" ref="H20:J20" ca="1" si="38">RANDBETWEEN(1,500)</f>
+        <v>224</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="39"/>
-        <v>213</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>186</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="39"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21">
+        <f t="shared" ca="1" si="38"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -3151,36 +3207,36 @@
         <v>29</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:F21" si="40">RANDBETWEEN(1,100)</f>
-        <v>79</v>
+        <f t="shared" ref="E21:F21" ca="1" si="39">RANDBETWEEN(1,100)</f>
+        <v>17</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="40"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>66</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="6"/>
-        <v>137</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21:J21" si="41">RANDBETWEEN(1,500)</f>
-        <v>419</v>
+        <f t="shared" ref="H21:J21" ca="1" si="40">RANDBETWEEN(1,500)</f>
+        <v>446</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="41"/>
-        <v>215</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>25</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="41"/>
-        <v>395</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>65</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -3190,33 +3246,33 @@
         <v>41</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" ref="E22:F22" si="42">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+        <f t="shared" ref="E22:F22" ca="1" si="41">RANDBETWEEN(1,100)</f>
+        <v>64</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="42"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>7</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="6"/>
-        <v>155</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:J22" si="43">RANDBETWEEN(1,500)</f>
-        <v>72</v>
+        <f t="shared" ref="H22:J22" ca="1" si="42">RANDBETWEEN(1,500)</f>
+        <v>418</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="43"/>
-        <v>233</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>325</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="43"/>
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23">
+        <f t="shared" ca="1" si="42"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -3226,33 +3282,33 @@
         <v>41</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E23:F23" si="44">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <f t="shared" ref="E23:F23" ca="1" si="43">RANDBETWEEN(1,100)</f>
+        <v>43</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="44"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>24</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>146</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:J23" si="45">RANDBETWEEN(1,500)</f>
-        <v>34</v>
+        <f t="shared" ref="H23:J23" ca="1" si="44">RANDBETWEEN(1,500)</f>
+        <v>453</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="45"/>
-        <v>178</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>46</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="45"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24">
+        <f t="shared" ca="1" si="44"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -3262,33 +3318,33 @@
         <v>41</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" ref="E24:F24" si="46">RANDBETWEEN(1,100)</f>
-        <v>79</v>
+        <f t="shared" ref="E24:F24" ca="1" si="45">RANDBETWEEN(1,100)</f>
+        <v>16</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="46"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>61</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="6"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:J24" si="47">RANDBETWEEN(1,500)</f>
-        <v>141</v>
+        <f t="shared" ref="H24:J24" ca="1" si="46">RANDBETWEEN(1,500)</f>
+        <v>52</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="47"/>
-        <v>118</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>142</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="47"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25">
+        <f t="shared" ca="1" si="46"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -3298,33 +3354,33 @@
         <v>41</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" ref="E25:F25" si="48">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <f t="shared" ref="E25:F25" ca="1" si="47">RANDBETWEEN(1,100)</f>
+        <v>4</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="48"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>63</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="6"/>
-        <v>130</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>127</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:J25" si="49">RANDBETWEEN(1,500)</f>
-        <v>368</v>
+        <f t="shared" ref="H25:J25" ca="1" si="48">RANDBETWEEN(1,500)</f>
+        <v>109</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="49"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="48"/>
+        <v>317</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="49"/>
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26">
+        <f t="shared" ca="1" si="48"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -3334,33 +3390,33 @@
         <v>41</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" ref="E26:F26" si="50">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <f t="shared" ref="E26:F26" ca="1" si="49">RANDBETWEEN(1,100)</f>
+        <v>93</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="50"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>71</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>173</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ref="H26:J26" si="51">RANDBETWEEN(1,500)</f>
-        <v>46</v>
+        <f t="shared" ref="H26:J26" ca="1" si="50">RANDBETWEEN(1,500)</f>
+        <v>202</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="51"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>333</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="51"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
+        <f t="shared" ca="1" si="50"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -3370,33 +3426,33 @@
         <v>41</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" ref="E27:F27" si="52">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <f t="shared" ref="E27:F27" ca="1" si="51">RANDBETWEEN(1,100)</f>
+        <v>30</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="52"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>94</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="6"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:J27" si="53">RANDBETWEEN(1,500)</f>
-        <v>475</v>
+        <f t="shared" ref="H27:J27" ca="1" si="52">RANDBETWEEN(1,500)</f>
+        <v>362</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="53"/>
-        <v>490</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>159</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="53"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
+        <f t="shared" ca="1" si="52"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -3406,33 +3462,33 @@
         <v>41</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" ref="E28:F28" si="54">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <f t="shared" ref="E28:F28" ca="1" si="53">RANDBETWEEN(1,100)</f>
+        <v>83</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="54"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>50</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="6"/>
-        <v>162</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:J28" si="55">RANDBETWEEN(1,500)</f>
-        <v>44</v>
+        <f t="shared" ref="H28:J28" ca="1" si="54">RANDBETWEEN(1,500)</f>
+        <v>491</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="55"/>
-        <v>399</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>229</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="55"/>
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29">
+        <f t="shared" ca="1" si="54"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -3442,33 +3498,33 @@
         <v>41</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ref="E29:F29" si="56">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <f t="shared" ref="E29:F29" ca="1" si="55">RANDBETWEEN(1,100)</f>
+        <v>85</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="56"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>84</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="6"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ref="H29:J29" si="57">RANDBETWEEN(1,500)</f>
-        <v>188</v>
+        <f t="shared" ref="H29:J29" ca="1" si="56">RANDBETWEEN(1,500)</f>
+        <v>359</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="57"/>
-        <v>175</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>415</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="57"/>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="30">
+        <f t="shared" ca="1" si="56"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -3478,33 +3534,33 @@
         <v>41</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" ref="E30:F30" si="58">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <f t="shared" ref="E30:F30" ca="1" si="57">RANDBETWEEN(1,100)</f>
+        <v>67</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="58"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>34</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="6"/>
-        <v>131</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" ref="H30:J30" si="59">RANDBETWEEN(1,500)</f>
-        <v>150</v>
+        <f t="shared" ref="H30:J30" ca="1" si="58">RANDBETWEEN(1,500)</f>
+        <v>72</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="59"/>
-        <v>298</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>462</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="59"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31">
+        <f t="shared" ca="1" si="58"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -3514,33 +3570,33 @@
         <v>41</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ref="E31:F31" si="60">RANDBETWEEN(1,100)</f>
-        <v>51</v>
+        <f t="shared" ref="E31:F31" ca="1" si="59">RANDBETWEEN(1,100)</f>
+        <v>70</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="60"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>82</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="6"/>
-        <v>196</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>160</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31:J31" si="61">RANDBETWEEN(1,500)</f>
-        <v>246</v>
+        <f t="shared" ref="H31:J31" ca="1" si="60">RANDBETWEEN(1,500)</f>
+        <v>282</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="61"/>
-        <v>496</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>352</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="61"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32">
+        <f t="shared" ca="1" si="60"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -3550,33 +3606,33 @@
         <v>41</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:F32" si="62">RANDBETWEEN(1,100)</f>
-        <v>100</v>
+        <f t="shared" ref="E32:F32" ca="1" si="61">RANDBETWEEN(1,100)</f>
+        <v>42</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="62"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>61</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>101</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:J32" si="63">RANDBETWEEN(1,500)</f>
-        <v>17</v>
+        <f t="shared" ref="H32:J32" ca="1" si="62">RANDBETWEEN(1,500)</f>
+        <v>160</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="63"/>
-        <v>483</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>189</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="63"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33">
+        <f t="shared" ca="1" si="62"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -3586,33 +3642,33 @@
         <v>41</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" ref="E33:F33" si="64">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <f t="shared" ref="E33:F33" ca="1" si="63">RANDBETWEEN(1,100)</f>
+        <v>5</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="64"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>62</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="6"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33:J33" si="65">RANDBETWEEN(1,500)</f>
-        <v>302</v>
+        <f t="shared" ref="H33:J33" ca="1" si="64">RANDBETWEEN(1,500)</f>
+        <v>394</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="65"/>
-        <v>153</v>
+        <f t="shared" ca="1" si="64"/>
+        <v>186</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="65"/>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -3622,33 +3678,33 @@
         <v>41</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:F34" si="66">RANDBETWEEN(1,100)</f>
-        <v>44</v>
+        <f t="shared" ref="E34:F34" ca="1" si="65">RANDBETWEEN(1,100)</f>
+        <v>40</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="66"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="65"/>
+        <v>70</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" ref="H34:J34" ca="1" si="66">RANDBETWEEN(1,500)</f>
+        <v>445</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" ca="1" si="66"/>
+        <v>119</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" ca="1" si="66"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
         <v>34</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" ref="H34:J34" si="67">RANDBETWEEN(1,500)</f>
-        <v>354</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" si="67"/>
-        <v>467</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="67"/>
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4">
-        <v>34.0</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -3658,33 +3714,33 @@
         <v>41</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" ref="E35:F35" si="68">RANDBETWEEN(1,100)</f>
-        <v>94</v>
+        <f t="shared" ref="E35:F35" ca="1" si="67">RANDBETWEEN(1,100)</f>
+        <v>98</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="68"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>96</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="6"/>
-        <v>168</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>179</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" ref="H35:J35" si="69">RANDBETWEEN(1,500)</f>
-        <v>72</v>
+        <f t="shared" ref="H35:J35" ca="1" si="68">RANDBETWEEN(1,500)</f>
+        <v>326</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="69"/>
-        <v>413</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>201</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="69"/>
-        <v>466</v>
-      </c>
-    </row>
-    <row r="36">
+        <f t="shared" ca="1" si="68"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -3694,33 +3750,33 @@
         <v>41</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" ref="E36:F36" si="70">RANDBETWEEN(1,100)</f>
-        <v>31</v>
+        <f t="shared" ref="E36:F36" ca="1" si="69">RANDBETWEEN(1,100)</f>
+        <v>13</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="70"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>58</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" ref="H36:J36" si="71">RANDBETWEEN(1,500)</f>
-        <v>229</v>
+        <f t="shared" ref="H36:J36" ca="1" si="70">RANDBETWEEN(1,500)</f>
+        <v>248</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="71"/>
-        <v>490</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>41</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="71"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37">
+        <f t="shared" ca="1" si="70"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
@@ -3730,33 +3786,33 @@
         <v>41</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" ref="E37:F37" si="72">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <f t="shared" ref="E37:F37" ca="1" si="71">RANDBETWEEN(1,100)</f>
+        <v>16</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="72"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>94</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="6"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>158</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" ref="H37:J37" si="73">RANDBETWEEN(1,500)</f>
-        <v>100</v>
+        <f t="shared" ref="H37:J37" ca="1" si="72">RANDBETWEEN(1,500)</f>
+        <v>259</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="73"/>
-        <v>107</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>56</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="73"/>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38">
+        <f t="shared" ca="1" si="72"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -3766,33 +3822,33 @@
         <v>41</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" ref="E38:F38" si="74">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <f t="shared" ref="E38:F38" ca="1" si="73">RANDBETWEEN(1,100)</f>
+        <v>69</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="74"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>89</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="6"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" ref="H38:J38" si="75">RANDBETWEEN(1,500)</f>
-        <v>219</v>
+        <f t="shared" ref="H38:J38" ca="1" si="74">RANDBETWEEN(1,500)</f>
+        <v>80</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="75"/>
-        <v>303</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>385</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="75"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39">
+        <f t="shared" ca="1" si="74"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
@@ -3802,33 +3858,33 @@
         <v>41</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" ref="E39:F39" si="76">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <f t="shared" ref="E39:F39" ca="1" si="75">RANDBETWEEN(1,100)</f>
+        <v>96</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="76"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>6</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="6"/>
-        <v>115</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39:J39" si="77">RANDBETWEEN(1,500)</f>
-        <v>273</v>
+        <f t="shared" ref="H39:J39" ca="1" si="76">RANDBETWEEN(1,500)</f>
+        <v>492</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="77"/>
-        <v>442</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>485</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="77"/>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40">
+        <f t="shared" ca="1" si="76"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
@@ -3838,33 +3894,33 @@
         <v>41</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" ref="E40:F40" si="78">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <f t="shared" ref="E40:F40" ca="1" si="77">RANDBETWEEN(1,100)</f>
+        <v>63</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="78"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>73</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="6"/>
-        <v>175</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>173</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" ref="H40:J40" si="79">RANDBETWEEN(1,500)</f>
-        <v>212</v>
+        <f t="shared" ref="H40:J40" ca="1" si="78">RANDBETWEEN(1,500)</f>
+        <v>476</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="79"/>
-        <v>209</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>59</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="79"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41">
+        <f t="shared" ca="1" si="78"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
@@ -3874,33 +3930,33 @@
         <v>41</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" ref="E41:F41" si="80">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <f t="shared" ref="E41:F41" ca="1" si="79">RANDBETWEEN(1,100)</f>
+        <v>8</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="80"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>75</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="6"/>
-        <v>160</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>187</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" ref="H41:J41" si="81">RANDBETWEEN(1,500)</f>
-        <v>365</v>
+        <f t="shared" ref="H41:J41" ca="1" si="80">RANDBETWEEN(1,500)</f>
+        <v>112</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="81"/>
-        <v>199</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>401</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="81"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42">
+        <f t="shared" ca="1" si="80"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
@@ -3910,33 +3966,33 @@
         <v>41</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" ref="E42:F42" si="82">RANDBETWEEN(1,100)</f>
-        <v>7</v>
+        <f t="shared" ref="E42:F42" ca="1" si="81">RANDBETWEEN(1,100)</f>
+        <v>98</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="82"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>54</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="6"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>124</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" ref="H42:J42" si="83">RANDBETWEEN(1,500)</f>
-        <v>249</v>
+        <f t="shared" ref="H42:J42" ca="1" si="82">RANDBETWEEN(1,500)</f>
+        <v>464</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="83"/>
-        <v>378</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>237</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="83"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43">
+        <f t="shared" ca="1" si="82"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -3946,33 +4002,33 @@
         <v>41</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" ref="E43:F43" si="84">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <f t="shared" ref="E43:F43" ca="1" si="83">RANDBETWEEN(1,100)</f>
+        <v>52</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="84"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>62</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="6"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" ref="H43:J43" si="85">RANDBETWEEN(1,500)</f>
-        <v>61</v>
+        <f t="shared" ref="H43:J43" ca="1" si="84">RANDBETWEEN(1,500)</f>
+        <v>186</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="85"/>
-        <v>283</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>188</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="85"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44">
+        <f t="shared" ca="1" si="84"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
@@ -3982,33 +4038,33 @@
         <v>41</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" ref="E44:F44" si="86">RANDBETWEEN(1,100)</f>
-        <v>26</v>
+        <f t="shared" ref="E44:F44" ca="1" si="85">RANDBETWEEN(1,100)</f>
+        <v>24</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="86"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>6</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="6"/>
-        <v>133</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>121</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" ref="H44:J44" si="87">RANDBETWEEN(1,500)</f>
-        <v>127</v>
+        <f t="shared" ref="H44:J44" ca="1" si="86">RANDBETWEEN(1,500)</f>
+        <v>338</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="87"/>
-        <v>160</v>
+        <f t="shared" ca="1" si="86"/>
+        <v>488</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="87"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45">
+        <f t="shared" ca="1" si="86"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
@@ -4018,33 +4074,33 @@
         <v>41</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" ref="E45:F45" si="88">RANDBETWEEN(1,100)</f>
-        <v>48</v>
+        <f t="shared" ref="E45:F45" ca="1" si="87">RANDBETWEEN(1,100)</f>
+        <v>77</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="88"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="87"/>
+        <v>70</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="6"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" ref="H45:J45" si="89">RANDBETWEEN(1,500)</f>
-        <v>490</v>
+        <f t="shared" ref="H45:J45" ca="1" si="88">RANDBETWEEN(1,500)</f>
+        <v>41</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="89"/>
-        <v>289</v>
+        <f t="shared" ca="1" si="88"/>
+        <v>200</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="89"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46">
+        <f t="shared" ca="1" si="88"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
@@ -4054,33 +4110,33 @@
         <v>41</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" ref="E46:F46" si="90">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <f t="shared" ref="E46:F46" ca="1" si="89">RANDBETWEEN(1,100)</f>
+        <v>62</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="90"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="89"/>
+        <v>54</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="6"/>
-        <v>173</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>123</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" ref="H46:J46" si="91">RANDBETWEEN(1,500)</f>
-        <v>21</v>
+        <f t="shared" ref="H46:J46" ca="1" si="90">RANDBETWEEN(1,500)</f>
+        <v>220</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="91"/>
-        <v>469</v>
+        <f t="shared" ca="1" si="90"/>
+        <v>227</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="91"/>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="47">
+        <f t="shared" ca="1" si="90"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
@@ -4090,33 +4146,33 @@
         <v>41</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" ref="E47:F47" si="92">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <f t="shared" ref="E47:F47" ca="1" si="91">RANDBETWEEN(1,100)</f>
+        <v>27</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="92"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="91"/>
+        <v>63</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="6"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" ref="H47:J47" si="93">RANDBETWEEN(1,500)</f>
-        <v>441</v>
+        <f t="shared" ref="H47:J47" ca="1" si="92">RANDBETWEEN(1,500)</f>
+        <v>261</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="93"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="92"/>
+        <v>45</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="93"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48">
+        <f t="shared" ca="1" si="92"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
@@ -4126,33 +4182,33 @@
         <v>41</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" ref="E48:F48" si="94">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <f t="shared" ref="E48:F48" ca="1" si="93">RANDBETWEEN(1,100)</f>
+        <v>87</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="94"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="93"/>
+        <v>27</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="6"/>
-        <v>120</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>181</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" ref="H48:J48" si="95">RANDBETWEEN(1,500)</f>
-        <v>178</v>
+        <f t="shared" ref="H48:J48" ca="1" si="94">RANDBETWEEN(1,500)</f>
+        <v>137</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="95"/>
-        <v>272</v>
+        <f t="shared" ca="1" si="94"/>
+        <v>287</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="95"/>
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49">
+        <f t="shared" ca="1" si="94"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
@@ -4162,33 +4218,33 @@
         <v>41</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" ref="E49:F49" si="96">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <f t="shared" ref="E49:F49" ca="1" si="95">RANDBETWEEN(1,100)</f>
+        <v>61</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="96"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="95"/>
+        <v>46</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" ref="H49:J49" si="97">RANDBETWEEN(1,500)</f>
-        <v>15</v>
+        <f t="shared" ref="H49:J49" ca="1" si="96">RANDBETWEEN(1,500)</f>
+        <v>317</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="97"/>
-        <v>335</v>
+        <f t="shared" ca="1" si="96"/>
+        <v>310</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="97"/>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50">
+        <f t="shared" ca="1" si="96"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
@@ -4198,33 +4254,33 @@
         <v>41</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" ref="E50:F50" si="98">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <f t="shared" ref="E50:F50" ca="1" si="97">RANDBETWEEN(1,100)</f>
+        <v>6</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="98"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="97"/>
+        <v>53</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="6"/>
-        <v>145</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" ref="H50:J50" si="99">RANDBETWEEN(1,500)</f>
-        <v>259</v>
+        <f t="shared" ref="H50:J50" ca="1" si="98">RANDBETWEEN(1,500)</f>
+        <v>353</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="99"/>
-        <v>241</v>
+        <f t="shared" ca="1" si="98"/>
+        <v>269</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="99"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="51">
+        <f t="shared" ca="1" si="98"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
@@ -4234,31 +4290,31 @@
         <v>41</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" ref="E51:F51" si="100">RANDBETWEEN(1,100)</f>
-        <v>49</v>
+        <f t="shared" ref="E51:F51" ca="1" si="99">RANDBETWEEN(1,100)</f>
+        <v>60</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="100"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="99"/>
+        <v>3</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="6"/>
-        <v>106</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>199</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" ref="H51:J51" si="101">RANDBETWEEN(1,500)</f>
-        <v>35</v>
+        <f t="shared" ref="H51:J51" ca="1" si="100">RANDBETWEEN(1,500)</f>
+        <v>69</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="101"/>
-        <v>286</v>
+        <f t="shared" ca="1" si="100"/>
+        <v>72</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="101"/>
-        <v>216</v>
+        <f t="shared" ca="1" si="100"/>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>